--- a/Stockbook/Stockbook/Product Template.xlsx
+++ b/Stockbook/Stockbook/Product Template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franz Justin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franz\Source\Repos\Stockbook\Stockbook\Stockbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14952" windowHeight="5688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14950" windowHeight="5690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Northern Ventures</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Piece</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Location:</t>
   </si>
   <si>
@@ -69,6 +66,18 @@
   </si>
   <si>
     <t xml:space="preserve">Category: </t>
+  </si>
+  <si>
+    <t>CategoryAsdsdsds</t>
+  </si>
+  <si>
+    <t>asdsadasdasda</t>
+  </si>
+  <si>
+    <t>asdasdasdasd</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -121,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,7 +149,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -148,6 +157,28 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -155,7 +186,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -163,20 +194,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,185 +555,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="G8:I9"/>
+      <selection activeCell="A5" sqref="A5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="15.81640625" style="8" customWidth="1"/>
+    <col min="4" max="9" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="F10" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="G10" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="I10" s="2">
+        <v>11111111</v>
+      </c>
+      <c r="J10" s="2">
+        <v>11111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>